--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.3569242500163</v>
+        <v>413.5393699269833</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.8061769347665</v>
+        <v>565.8228100034988</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.4127453115346</v>
+        <v>511.8214751540656</v>
       </c>
       <c r="AD2" t="n">
-        <v>286356.9242500163</v>
+        <v>413539.3699269833</v>
       </c>
       <c r="AE2" t="n">
-        <v>391806.1769347665</v>
+        <v>565822.8100034988</v>
       </c>
       <c r="AF2" t="n">
         <v>6.56949905495262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>354412.7453115347</v>
+        <v>511821.4751540656</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.1997209128691</v>
+        <v>328.0849336163554</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.9694138477744</v>
+        <v>448.9002802596399</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.9091750525849</v>
+        <v>406.0578675471594</v>
       </c>
       <c r="AD3" t="n">
-        <v>230199.7209128691</v>
+        <v>328084.9336163554</v>
       </c>
       <c r="AE3" t="n">
-        <v>314969.4138477744</v>
+        <v>448900.2802596399</v>
       </c>
       <c r="AF3" t="n">
         <v>8.02313979279598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>284909.1750525849</v>
+        <v>406057.8675471594</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.58857926328</v>
+        <v>326.3723067402811</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.7649787642546</v>
+        <v>446.5569886120297</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.9151281594915</v>
+        <v>403.9382163655667</v>
       </c>
       <c r="AD4" t="n">
-        <v>228588.57926328</v>
+        <v>326372.3067402811</v>
       </c>
       <c r="AE4" t="n">
-        <v>312764.9787642546</v>
+        <v>446556.9886120297</v>
       </c>
       <c r="AF4" t="n">
         <v>8.150368765704781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>282915.1281594915</v>
+        <v>403938.2163655667</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.164745361782</v>
+        <v>357.5493007864892</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.6546852103644</v>
+        <v>489.2147272979558</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.8567643763697</v>
+        <v>442.5247603418203</v>
       </c>
       <c r="AD2" t="n">
-        <v>251164.745361782</v>
+        <v>357549.3007864892</v>
       </c>
       <c r="AE2" t="n">
-        <v>343654.6852103644</v>
+        <v>489214.7272979558</v>
       </c>
       <c r="AF2" t="n">
         <v>8.096778878192587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>310856.7643763697</v>
+        <v>442524.7603418203</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.0480790838207</v>
+        <v>309.8194051661237</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.5017808202483</v>
+        <v>423.9085784157895</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.6812599841685</v>
+        <v>383.4513386512122</v>
       </c>
       <c r="AD3" t="n">
-        <v>213048.0790838207</v>
+        <v>309819.4051661236</v>
       </c>
       <c r="AE3" t="n">
-        <v>291501.7808202483</v>
+        <v>423908.5784157895</v>
       </c>
       <c r="AF3" t="n">
         <v>9.120128267190645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>263681.2599841686</v>
+        <v>383451.3386512122</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.7321577534636</v>
+        <v>304.1854899242462</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.3330350848171</v>
+        <v>416.200007031054</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.8149348943634</v>
+        <v>376.4784625003882</v>
       </c>
       <c r="AD2" t="n">
-        <v>210732.1577534636</v>
+        <v>304185.4899242462</v>
       </c>
       <c r="AE2" t="n">
-        <v>288333.0350848171</v>
+        <v>416200.0070310541</v>
       </c>
       <c r="AF2" t="n">
         <v>1.247051954460273e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>260814.9348943634</v>
+        <v>376478.4625003882</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.4206028378293</v>
+        <v>300.2121387038399</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.065531319985</v>
+        <v>410.7634925994097</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.241031488839</v>
+        <v>371.560801375904</v>
       </c>
       <c r="AD2" t="n">
-        <v>205420.6028378293</v>
+        <v>300212.1387038399</v>
       </c>
       <c r="AE2" t="n">
-        <v>281065.531319985</v>
+        <v>410763.4925994098</v>
       </c>
       <c r="AF2" t="n">
         <v>1.10336541216884e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>254241.031488839</v>
+        <v>371560.801375904</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.5835801344562</v>
+        <v>300.3751160004668</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.2885240472808</v>
+        <v>410.9864853267056</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.442742103214</v>
+        <v>371.7625119902789</v>
       </c>
       <c r="AD3" t="n">
-        <v>205583.5801344562</v>
+        <v>300375.1160004668</v>
       </c>
       <c r="AE3" t="n">
-        <v>281288.5240472808</v>
+        <v>410986.4853267056</v>
       </c>
       <c r="AF3" t="n">
         <v>1.102895111420258e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>254442.742103214</v>
+        <v>371762.511990279</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.6672982418266</v>
+        <v>309.3626425072164</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1395590889385</v>
+        <v>423.2836155949262</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.0216783619496</v>
+        <v>382.8860214048314</v>
       </c>
       <c r="AD2" t="n">
-        <v>207667.2982418266</v>
+        <v>309362.6425072164</v>
       </c>
       <c r="AE2" t="n">
-        <v>284139.5590889385</v>
+        <v>423283.6155949262</v>
       </c>
       <c r="AF2" t="n">
         <v>1.373780271067592e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257021.6783619496</v>
+        <v>382886.0214048314</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.33365396949</v>
+        <v>361.1318696565876</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.9905257698093</v>
+        <v>494.1165560778083</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.778798398213</v>
+        <v>446.9587654626836</v>
       </c>
       <c r="AD2" t="n">
-        <v>254333.65396949</v>
+        <v>361131.8696565876</v>
       </c>
       <c r="AE2" t="n">
-        <v>347990.5257698093</v>
+        <v>494116.5560778083</v>
       </c>
       <c r="AF2" t="n">
         <v>7.707414803236197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>314778.798398213</v>
+        <v>446958.7654626836</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.7240159972978</v>
+        <v>311.7791375667873</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.7948716423849</v>
+        <v>426.5899707436691</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.7555014366144</v>
+        <v>385.8768226586768</v>
       </c>
       <c r="AD3" t="n">
-        <v>214724.0159972978</v>
+        <v>311779.1375667873</v>
       </c>
       <c r="AE3" t="n">
-        <v>293794.8716423849</v>
+        <v>426589.9707436691</v>
       </c>
       <c r="AF3" t="n">
         <v>8.833590067552486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>265755.5014366144</v>
+        <v>385876.8226586768</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.8320616146081</v>
+        <v>311.8871831840975</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.9427044226249</v>
+        <v>426.7378035239092</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.889225263793</v>
+        <v>386.0105464858554</v>
       </c>
       <c r="AD4" t="n">
-        <v>214832.0616146081</v>
+        <v>311887.1831840975</v>
       </c>
       <c r="AE4" t="n">
-        <v>293942.7044226249</v>
+        <v>426737.8035239092</v>
       </c>
       <c r="AF4" t="n">
         <v>8.833268303191252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>265889.225263793</v>
+        <v>386010.5464858554</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.7409032261572</v>
+        <v>316.7914398017925</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.1862216108079</v>
+        <v>433.4480237887715</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.0140629168235</v>
+        <v>392.0803527464925</v>
       </c>
       <c r="AD2" t="n">
-        <v>215740.9032261572</v>
+        <v>316791.4398017926</v>
       </c>
       <c r="AE2" t="n">
-        <v>295186.2216108079</v>
+        <v>433448.0237887715</v>
       </c>
       <c r="AF2" t="n">
         <v>1.43720800669806e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>267014.0629168235</v>
+        <v>392080.3527464925</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.6664205796634</v>
+        <v>329.4835386078923</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.7127052718753</v>
+        <v>450.8139133111583</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.1997734004225</v>
+        <v>407.7888661460418</v>
       </c>
       <c r="AD2" t="n">
-        <v>233666.4205796634</v>
+        <v>329483.5386078923</v>
       </c>
       <c r="AE2" t="n">
-        <v>319712.7052718753</v>
+        <v>450813.9133111583</v>
       </c>
       <c r="AF2" t="n">
         <v>9.274819893487402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>289199.7734004225</v>
+        <v>407788.8661460418</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.5249104814869</v>
+        <v>305.3751828986392</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.6812261073086</v>
+        <v>417.8277974441684</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.3207722473394</v>
+        <v>377.9508988810929</v>
       </c>
       <c r="AD3" t="n">
-        <v>209524.9104814869</v>
+        <v>305375.1828986392</v>
       </c>
       <c r="AE3" t="n">
-        <v>286681.2261073086</v>
+        <v>417827.7974441684</v>
       </c>
       <c r="AF3" t="n">
         <v>9.942843846292954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>259320.7722473394</v>
+        <v>377950.8988810929</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.7870770571</v>
+        <v>344.9149064060516</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.7190133717207</v>
+        <v>471.9277915164997</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.537409288636</v>
+        <v>426.8876654489796</v>
       </c>
       <c r="AD2" t="n">
-        <v>238787.0770571</v>
+        <v>344914.9064060516</v>
       </c>
       <c r="AE2" t="n">
-        <v>326719.0133717207</v>
+        <v>471927.7915164997</v>
       </c>
       <c r="AF2" t="n">
         <v>8.472163526626945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>295537.4092886359</v>
+        <v>426887.6654489796</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.0855749223933</v>
+        <v>308.5623138379145</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.1848401638972</v>
+        <v>422.1885706015785</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.4900062957215</v>
+        <v>381.8954859687434</v>
       </c>
       <c r="AD3" t="n">
-        <v>212085.5749223933</v>
+        <v>308562.3138379146</v>
       </c>
       <c r="AE3" t="n">
-        <v>290184.8401638972</v>
+        <v>422188.5706015785</v>
       </c>
       <c r="AF3" t="n">
         <v>9.359584921510749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>262490.0062957215</v>
+        <v>381895.4859687434</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.4521473016523</v>
+        <v>399.5046817964214</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.4634888474138</v>
+        <v>546.6199305365222</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.5799558767291</v>
+        <v>494.4512915520068</v>
       </c>
       <c r="AD2" t="n">
-        <v>282452.1473016523</v>
+        <v>399504.6817964214</v>
       </c>
       <c r="AE2" t="n">
-        <v>386463.4888474138</v>
+        <v>546619.9305365223</v>
       </c>
       <c r="AF2" t="n">
         <v>6.89554932898163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>349579.9558767291</v>
+        <v>494451.2915520068</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.7355800922815</v>
+        <v>327.3639298599963</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.3343559005991</v>
+        <v>447.9137711117486</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.3347261445784</v>
+        <v>405.1655094477687</v>
       </c>
       <c r="AD3" t="n">
-        <v>229735.5800922815</v>
+        <v>327363.9298599964</v>
       </c>
       <c r="AE3" t="n">
-        <v>314334.355900599</v>
+        <v>447913.7711117486</v>
       </c>
       <c r="AF3" t="n">
         <v>8.139429663728017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>284334.7261445784</v>
+        <v>405165.5094477687</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.8211324014449</v>
+        <v>314.6534928034648</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.3466799936407</v>
+        <v>430.5227903860947</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.7276284294405</v>
+        <v>389.4342995141764</v>
       </c>
       <c r="AD4" t="n">
-        <v>226821.1324014449</v>
+        <v>314653.4928034648</v>
       </c>
       <c r="AE4" t="n">
-        <v>310346.6799936407</v>
+        <v>430522.7903860947</v>
       </c>
       <c r="AF4" t="n">
         <v>8.412066870062664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>280727.6284294405</v>
+        <v>389434.2995141764</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.1631341090844</v>
+        <v>302.3263885823667</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.4497394803692</v>
+        <v>413.6563025573319</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.397694168654</v>
+        <v>374.1775256115263</v>
       </c>
       <c r="AD2" t="n">
-        <v>207163.1341090843</v>
+        <v>302326.3885823668</v>
       </c>
       <c r="AE2" t="n">
-        <v>283449.7394803692</v>
+        <v>413656.3025573319</v>
       </c>
       <c r="AF2" t="n">
         <v>1.05642812394312e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>256397.694168654</v>
+        <v>374177.5256115263</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.0259468137614</v>
+        <v>302.1892012870438</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.2620337706321</v>
+        <v>413.4685968475948</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.2279028284075</v>
+        <v>374.0077342712798</v>
       </c>
       <c r="AD3" t="n">
-        <v>207025.9468137614</v>
+        <v>302189.2012870438</v>
       </c>
       <c r="AE3" t="n">
-        <v>283262.0337706321</v>
+        <v>413468.5968475948</v>
       </c>
       <c r="AF3" t="n">
         <v>1.060485851135467e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>256227.9028284076</v>
+        <v>374007.7342712798</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.3648956200974</v>
+        <v>296.3400638877872</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.8845778963982</v>
+        <v>405.4655490122017</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.459102391993</v>
+        <v>366.7684860889486</v>
       </c>
       <c r="AD2" t="n">
-        <v>202364.8956200974</v>
+        <v>296340.0638877872</v>
       </c>
       <c r="AE2" t="n">
-        <v>276884.5778963982</v>
+        <v>405465.5490122017</v>
       </c>
       <c r="AF2" t="n">
         <v>1.198754813013795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>250459.102391993</v>
+        <v>366768.4860889486</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.3292775351414</v>
+        <v>302.3889517116671</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.4135524794025</v>
+        <v>413.7419041909311</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.0786450147982</v>
+        <v>374.2549575453575</v>
       </c>
       <c r="AD2" t="n">
-        <v>209329.2775351414</v>
+        <v>302388.9517116671</v>
       </c>
       <c r="AE2" t="n">
-        <v>286413.5524794025</v>
+        <v>413741.9041909311</v>
       </c>
       <c r="AF2" t="n">
         <v>1.302155215401412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>259078.6450147982</v>
+        <v>374254.9575453575</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.9058678545001</v>
+        <v>342.1828026355043</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.6720834800892</v>
+        <v>468.1896066057253</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.2584670919223</v>
+        <v>423.506247659514</v>
       </c>
       <c r="AD2" t="n">
-        <v>232905.8678545001</v>
+        <v>342182.8026355043</v>
       </c>
       <c r="AE2" t="n">
-        <v>318672.0834800892</v>
+        <v>468189.6066057252</v>
       </c>
       <c r="AF2" t="n">
         <v>1.501687631609994e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>288258.4670919223</v>
+        <v>423506.247659514</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.0819107620437</v>
+        <v>343.872532457655</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.7541737370838</v>
+        <v>470.5015694940104</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.6646525945676</v>
+        <v>425.5975600546015</v>
       </c>
       <c r="AD2" t="n">
-        <v>238081.9107620437</v>
+        <v>343872.5324576551</v>
       </c>
       <c r="AE2" t="n">
-        <v>325754.1737370838</v>
+        <v>470501.5694940104</v>
       </c>
       <c r="AF2" t="n">
         <v>8.658219500331738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>294664.6525945676</v>
+        <v>425597.5600546015</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.6903967019184</v>
+        <v>306.8605832053121</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.2758957717253</v>
+        <v>419.8601876749947</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.7632488771176</v>
+        <v>379.7893206407669</v>
       </c>
       <c r="AD3" t="n">
-        <v>210690.3967019184</v>
+        <v>306860.5832053121</v>
       </c>
       <c r="AE3" t="n">
-        <v>288275.8957717253</v>
+        <v>419860.1876749948</v>
       </c>
       <c r="AF3" t="n">
         <v>9.660044702145735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>260763.2488771176</v>
+        <v>379789.3206407669</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.9640391183218</v>
+        <v>374.9963360331765</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.6402200607583</v>
+        <v>513.0865306313451</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.6485920409395</v>
+        <v>464.1182722693574</v>
       </c>
       <c r="AD2" t="n">
-        <v>267964.0391183218</v>
+        <v>374996.3360331765</v>
       </c>
       <c r="AE2" t="n">
-        <v>366640.2200607584</v>
+        <v>513086.5306313451</v>
       </c>
       <c r="AF2" t="n">
         <v>7.314726432940217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>331648.5920409395</v>
+        <v>464118.2722693573</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.0730891987248</v>
+        <v>323.3348919018416</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.3231742823426</v>
+        <v>442.4010636287915</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.8018046667291</v>
+        <v>400.1789270298514</v>
       </c>
       <c r="AD3" t="n">
-        <v>226073.0891987248</v>
+        <v>323334.8919018416</v>
       </c>
       <c r="AE3" t="n">
-        <v>309323.1742823425</v>
+        <v>442401.0636287915</v>
       </c>
       <c r="AF3" t="n">
         <v>8.553331725573198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>279801.8046667291</v>
+        <v>400178.9270298514</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.7967583920836</v>
+        <v>313.1258809029046</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.2626451129843</v>
+        <v>428.4326443902676</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.0831926672134</v>
+        <v>387.5436341186527</v>
       </c>
       <c r="AD4" t="n">
-        <v>215796.7583920836</v>
+        <v>313125.8809029046</v>
       </c>
       <c r="AE4" t="n">
-        <v>295262.6451129843</v>
+        <v>428432.6443902676</v>
       </c>
       <c r="AF4" t="n">
         <v>8.629989922756361e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>267083.1926672134</v>
+        <v>387543.6341186527</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.2361026270042</v>
+        <v>385.5831427977627</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.698272303955</v>
+        <v>527.5718667036032</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.8463670174166</v>
+        <v>477.2211481971759</v>
       </c>
       <c r="AD2" t="n">
-        <v>259236.1026270042</v>
+        <v>385583.1427977626</v>
       </c>
       <c r="AE2" t="n">
-        <v>354698.272303955</v>
+        <v>527571.8667036032</v>
       </c>
       <c r="AF2" t="n">
         <v>1.53232498285309e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>320846.3670174166</v>
+        <v>477221.1481971759</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.9623858173368</v>
+        <v>298.3592990037038</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.0703344605537</v>
+        <v>408.2283555801651</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.4362534173948</v>
+        <v>369.2676142756889</v>
       </c>
       <c r="AD2" t="n">
-        <v>203962.3858173368</v>
+        <v>298359.2990037038</v>
       </c>
       <c r="AE2" t="n">
-        <v>279070.3344605537</v>
+        <v>408228.3555801651</v>
       </c>
       <c r="AF2" t="n">
         <v>1.148174082538128e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>252436.2534173948</v>
+        <v>369267.6142756889</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.002129606036</v>
+        <v>315.4501238707754</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.0166195357954</v>
+        <v>431.6127761572714</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.2880158468669</v>
+        <v>390.4202585731567</v>
       </c>
       <c r="AD2" t="n">
-        <v>220002.1296060361</v>
+        <v>315450.1238707755</v>
       </c>
       <c r="AE2" t="n">
-        <v>301016.6195357954</v>
+        <v>431612.7761572713</v>
       </c>
       <c r="AF2" t="n">
         <v>9.933166967936635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>272288.0158468669</v>
+        <v>390420.2585731567</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.3969850877505</v>
+        <v>303.9122991601941</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.1379488230428</v>
+        <v>415.8262153753521</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.92478318108</v>
+        <v>376.1403449956865</v>
       </c>
       <c r="AD3" t="n">
-        <v>208396.9850877505</v>
+        <v>303912.2991601941</v>
       </c>
       <c r="AE3" t="n">
-        <v>285137.9488230428</v>
+        <v>415826.2153753521</v>
       </c>
       <c r="AF3" t="n">
         <v>1.023518418269656e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>257924.78318108</v>
+        <v>376140.3449956865</v>
       </c>
     </row>
   </sheetData>
